--- a/biology/Botanique/Oncinotis_thyrsiflora/Oncinotis_thyrsiflora.xlsx
+++ b/biology/Botanique/Oncinotis_thyrsiflora/Oncinotis_thyrsiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncinotis thyrsiflora  K.Schum. ex Stapf est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Oncinotis, présente en Afrique tropicale.
-Proche de Oncinotis gracilis, elle en est tantôt différenciée[3], tantôt considérée comme synonyme[4].
+Proche de Oncinotis gracilis, elle en est tantôt différenciée, tantôt considérée comme synonyme.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oncinotis thyrsiflora est une grande liane ligneuse pouvant atteindre 20 m de hauteur et 10 cm de diamètre[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oncinotis thyrsiflora est une grande liane ligneuse pouvant atteindre 20 m de hauteur et 10 cm de diamètre.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, endémique du Cameroun, l'espèce n'est connue que d'un seul site, Bipindi dans la Région du Sud, où elle a été récoltée par Georg August Zenker en 1903[5].
-L'espèce O. gracilis, à laquelle certains auteurs semblent vouloir l'assimiler, est au contraire plus répandue dans plusieurs pays d'Afrique tropicale[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, endémique du Cameroun, l'espèce n'est connue que d'un seul site, Bipindi dans la Région du Sud, où elle a été récoltée par Georg August Zenker en 1903.
+L'espèce O. gracilis, à laquelle certains auteurs semblent vouloir l'assimiler, est au contraire plus répandue dans plusieurs pays d'Afrique tropicale.
 </t>
         </is>
       </c>
